--- a/static/uploads/tangcanhom.xlsx
+++ b/static/uploads/tangcanhom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1D4E7B-F324-40D7-A246-697AA26D15CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13EBD3B-9507-47A4-9F29-74C1C92EC3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>MST</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Giờ tăng ca</t>
-  </si>
-  <si>
-    <t>Giờ tăng ca thực tế</t>
   </si>
   <si>
     <t>Nhân viên</t>
@@ -423,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,10 +431,9 @@
     <col min="1" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,25 +455,22 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="2">
         <v>45463</v>
@@ -485,38 +478,35 @@
       <c r="G2" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="H2" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
     </row>
   </sheetData>
